--- a/shield/GBAHD_Shield_BOM.xlsx
+++ b/shield/GBAHD_Shield_BOM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,216 +8,219 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\GBAHD\GBAHD-Shield\shield\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6E84E8-7257-417F-A712-FD901D82065C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{469A230A-917A-4444-AF5C-1CAC8BC89DE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="255" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="255" windowWidth="25440" windowHeight="15390"/>
   </bookViews>
   <sheets>
-    <sheet name="GBAHD_Shield" sheetId="1" r:id="rId1"/>
+    <sheet name="GBAHD_Shield_v20210321" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Bezeichner</t>
-  </si>
-  <si>
-    <t>GehÃ¤use</t>
-  </si>
-  <si>
-    <t>StÃ¼ckzahl</t>
-  </si>
-  <si>
-    <t>Bezeichnung</t>
-  </si>
-  <si>
-    <t>Anbieter und Referenz</t>
-  </si>
-  <si>
-    <t>J5,J12,J18,J16,J15,J13,J11,J10,J7</t>
-  </si>
-  <si>
-    <t>TestPoint_Pad_1.5x1.5mm</t>
-  </si>
-  <si>
-    <t>Conn_01x01</t>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>SW_Push_1P1T_NO_CK_KMR2</t>
+  </si>
+  <si>
+    <t>SW_Push</t>
+  </si>
+  <si>
+    <t>R4,R3</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric_Pad1.20x1.40mm_HandSolder</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SOT-89-3</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>2.2k</t>
+  </si>
+  <si>
+    <t>C1,C3</t>
+  </si>
+  <si>
+    <t>C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>TE_1-1734839-6_1x16-1MP_P0.5mm_Horizontal</t>
+  </si>
+  <si>
+    <t>Conn_01x16</t>
   </si>
   <si>
     <t>U5</t>
   </si>
   <si>
-    <t>SOT-223-3_TabPin2</t>
-  </si>
-  <si>
-    <t>AMS1117</t>
-  </si>
-  <si>
-    <t>SJ2,SJ1</t>
-  </si>
-  <si>
-    <t>SolderJumper-2_P1.3mm_Open_RoundedPad1.0x1.5mm</t>
-  </si>
-  <si>
-    <t>SOLDER_JUMPER</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R_0805_2012Metric_Pad1.20x1.40mm_HandSolder</t>
-  </si>
-  <si>
-    <t>7.5K</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>16.2K</t>
-  </si>
-  <si>
-    <t>R3,R1,R2</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
+    <t>TQFP-32_7x7mm_P0.8mm</t>
+  </si>
+  <si>
+    <t>ATmega328P-AU</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>TE_4-1734839-0_1x40-1MP_P0.5mm_Horizontal</t>
+  </si>
+  <si>
+    <t>FFC_OGBA_40</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>SNES_7PIN</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <t>Q_PMOS_GSD</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>TE_3-1734839-4_1x34-1MP_P0.5mm_Horizontal</t>
+  </si>
+  <si>
+    <t>FFC_GBA-SP</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>PinHeader_2x03_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Conn_02x03_Odd_Even</t>
+  </si>
+  <si>
+    <t>C2</t>
   </si>
   <si>
     <t>22u</t>
   </si>
   <si>
-    <t>C1,C3</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>J9</t>
-  </si>
-  <si>
-    <t>TE_3-1734839-4_1x34-1MP_P0.5mm_Horizontal</t>
-  </si>
-  <si>
-    <t>FLEX_GBA-SP</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>PinHeader_2x10_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>Conn_02x10_Top_Bottom</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>TE_1-1734839-6_1x16-1MP_P0.5mm_Horizontal</t>
-  </si>
-  <si>
-    <t>Conn_01x16</t>
-  </si>
-  <si>
     <t>J2</t>
   </si>
   <si>
-    <t>PinHeader_2x08_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>Conn_02x08_Top_Bottom</t>
+    <t>TE_3-1734839-2_1x32-1MP_P0.5mm_Horizontal</t>
+  </si>
+  <si>
+    <t>FFC_OGBA_32</t>
+  </si>
+  <si>
+    <t>U2,U3</t>
+  </si>
+  <si>
+    <t>SOIC-16_3.9x9.9mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>74HC595</t>
+  </si>
+  <si>
+    <t>J8,J10</t>
+  </si>
+  <si>
+    <t>PinHeader_1x10_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Conn_01x10</t>
+  </si>
+  <si>
+    <t>J9,J7</t>
+  </si>
+  <si>
+    <t>PinHeader_1x08_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Conn_01x08</t>
   </si>
   <si>
     <t>J6</t>
   </si>
   <si>
-    <t>PinHeader_2x03_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>Conn_02x03_Odd_Even</t>
-  </si>
-  <si>
-    <t>U4,U3</t>
-  </si>
-  <si>
-    <t>TSSOP-16_4.4x5mm_P0.65mm</t>
-  </si>
-  <si>
-    <t>74HC595</t>
-  </si>
-  <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>XKB-TS-1185EC-C-D-B</t>
-  </si>
-  <si>
-    <t>SW_Push</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>TQFP-32_7x7mm_P0.8mm</t>
-  </si>
-  <si>
-    <t>ATmega328P-AU</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SNES_7PIN</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>SOT-23</t>
-  </si>
-  <si>
-    <t>Q_PMOS_GSD</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>TE_4-1734839-0_1x40-1MP_P0.5mm_Horizontal</t>
-  </si>
-  <si>
-    <t>FFC_OGBA</t>
+    <t>PinHeader_1x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Conn_01x06</t>
+  </si>
+  <si>
+    <t>JUSHUO AFC07-S32FCC-00</t>
   </si>
   <si>
     <t>JUSHUO AFC07-S34FCC-00</t>
   </si>
   <si>
+    <t>JUSHUO AFC07-S40FCC-00</t>
+  </si>
+  <si>
     <t>JUSHUO AFC07-S16FCC-00</t>
   </si>
   <si>
-    <t>JUSHUO AFC07-S40FCC-00</t>
-  </si>
-  <si>
-    <t>AMS1117-adj</t>
-  </si>
-  <si>
     <t>SI2301DS</t>
+  </si>
+  <si>
+    <t>TS-1185EC-C-D-B</t>
+  </si>
+  <si>
+    <t>LM1117F-ADJ</t>
+  </si>
+  <si>
+    <t>Qty.</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Outline</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Part</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1051,20 +1054,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1073,161 +1076,167 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1235,107 +1244,104 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
         <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1343,95 +1349,92 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F20">
-    <sortCondition ref="B1:B20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F23">
+    <sortCondition ref="B1:B23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
